--- a/Data Pokemon/pokemon_type_icons.xlsx
+++ b/Data Pokemon/pokemon_type_icons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bc24048d1251385/Power BI/Proyecto Pokemon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bc24048d1251385/Power BI/Proyecto Pokemon/Data Pokemon Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_1EB100F8FE9B08813D937275891355B46BF4D445" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8294DE5A-904E-4806-9056-E5442CDF8136}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_1EB100F8FE9B08813D937275891355B46BF4D445" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3884D2-3B34-40DA-B99F-E0148E032C54}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>Tipo (Español)</t>
   </si>
@@ -806,16 +806,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,386 +942,375 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1336,40 +1326,39 @@
     <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{19252953-83AC-4432-B5C1-38734D179BA6}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{E44858DE-5FEE-463C-8BF7-6B5429DB1F79}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{AF9DD344-91DE-42A6-A234-9594F2BB0206}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{25BE9375-6492-4A97-A5BF-DF117A3035A7}"/>
-    <hyperlink ref="C25" r:id="rId22" xr:uid="{A3E92633-C18F-43C0-9D76-639833954DDE}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{823A0A54-D63F-4B91-8299-327A80C7FE39}"/>
-    <hyperlink ref="C27" r:id="rId24" xr:uid="{44770C68-1838-4704-97EB-C3FF4F9BDBC1}"/>
-    <hyperlink ref="C28" r:id="rId25" xr:uid="{2F86190A-BA35-4564-A630-B713DA750F47}"/>
-    <hyperlink ref="C29" r:id="rId26" xr:uid="{8BDEEACC-8EED-470D-A00B-E7F3031FE528}"/>
-    <hyperlink ref="C30" r:id="rId27" xr:uid="{F44AD062-598E-4932-AEC0-3EA9A347F053}"/>
-    <hyperlink ref="C31" r:id="rId28" xr:uid="{0FD9FE6B-6AD9-4EF2-8E4E-AE639B58CBD0}"/>
-    <hyperlink ref="C32" r:id="rId29" xr:uid="{25CCE93F-B4BB-41EC-9592-D3EBB61FA958}"/>
-    <hyperlink ref="C33" r:id="rId30" xr:uid="{8812D1F2-B4DB-4612-9D78-F55BB0A3A332}"/>
-    <hyperlink ref="C34" r:id="rId31" xr:uid="{20C572CF-B31E-4289-A86A-B39071BF4C42}"/>
-    <hyperlink ref="C35" r:id="rId32" xr:uid="{F82C48D7-CBCB-4FCA-B370-43294867E40E}"/>
-    <hyperlink ref="C36" r:id="rId33" xr:uid="{F01E4DE7-7D61-4A4E-B9A7-6201A6819B3D}"/>
-    <hyperlink ref="C37" r:id="rId34" xr:uid="{286C077C-9955-4B6A-9FB4-78252384ACD9}"/>
-    <hyperlink ref="C38" r:id="rId35" xr:uid="{7EE685E2-E995-4EE8-B789-42B237AA5B28}"/>
-    <hyperlink ref="C39" r:id="rId36" xr:uid="{C2C56485-FDF3-44B0-BDB0-C671F2584827}"/>
-    <hyperlink ref="C40" r:id="rId37" xr:uid="{264F487A-4FC3-44B8-9908-77A1DE5FB7AC}"/>
-    <hyperlink ref="C41" r:id="rId38" xr:uid="{DE8716A6-5E72-40D3-A218-2F1289B30F7C}"/>
-    <hyperlink ref="C42" r:id="rId39" xr:uid="{83A19CEF-D65B-47B3-BFBA-C1006B0D1027}"/>
-    <hyperlink ref="C43" r:id="rId40" xr:uid="{679BB136-6C3E-43C8-902A-F6DBD6BC2100}"/>
-    <hyperlink ref="C44" r:id="rId41" xr:uid="{5DDABE2B-39E7-4125-B501-F1A131DD1D5A}"/>
-    <hyperlink ref="C45" r:id="rId42" xr:uid="{87B53E83-0B44-479A-8E21-A5689B05CC3D}"/>
-    <hyperlink ref="C46" r:id="rId43" xr:uid="{3CA35C00-6785-4848-956C-91F10BEF333E}"/>
-    <hyperlink ref="C23" r:id="rId44" xr:uid="{4AE6540E-458C-460F-9CB9-42A64210A447}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{19252953-83AC-4432-B5C1-38734D179BA6}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{E44858DE-5FEE-463C-8BF7-6B5429DB1F79}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{AF9DD344-91DE-42A6-A234-9594F2BB0206}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{25BE9375-6492-4A97-A5BF-DF117A3035A7}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{A3E92633-C18F-43C0-9D76-639833954DDE}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{823A0A54-D63F-4B91-8299-327A80C7FE39}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{44770C68-1838-4704-97EB-C3FF4F9BDBC1}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{2F86190A-BA35-4564-A630-B713DA750F47}"/>
+    <hyperlink ref="C28" r:id="rId25" xr:uid="{8BDEEACC-8EED-470D-A00B-E7F3031FE528}"/>
+    <hyperlink ref="C29" r:id="rId26" xr:uid="{F44AD062-598E-4932-AEC0-3EA9A347F053}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{0FD9FE6B-6AD9-4EF2-8E4E-AE639B58CBD0}"/>
+    <hyperlink ref="C31" r:id="rId28" xr:uid="{25CCE93F-B4BB-41EC-9592-D3EBB61FA958}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{8812D1F2-B4DB-4612-9D78-F55BB0A3A332}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{20C572CF-B31E-4289-A86A-B39071BF4C42}"/>
+    <hyperlink ref="C34" r:id="rId31" xr:uid="{F82C48D7-CBCB-4FCA-B370-43294867E40E}"/>
+    <hyperlink ref="C35" r:id="rId32" xr:uid="{F01E4DE7-7D61-4A4E-B9A7-6201A6819B3D}"/>
+    <hyperlink ref="C36" r:id="rId33" xr:uid="{286C077C-9955-4B6A-9FB4-78252384ACD9}"/>
+    <hyperlink ref="C37" r:id="rId34" xr:uid="{7EE685E2-E995-4EE8-B789-42B237AA5B28}"/>
+    <hyperlink ref="C38" r:id="rId35" xr:uid="{C2C56485-FDF3-44B0-BDB0-C671F2584827}"/>
+    <hyperlink ref="C39" r:id="rId36" xr:uid="{264F487A-4FC3-44B8-9908-77A1DE5FB7AC}"/>
+    <hyperlink ref="C40" r:id="rId37" xr:uid="{DE8716A6-5E72-40D3-A218-2F1289B30F7C}"/>
+    <hyperlink ref="C41" r:id="rId38" xr:uid="{83A19CEF-D65B-47B3-BFBA-C1006B0D1027}"/>
+    <hyperlink ref="C42" r:id="rId39" xr:uid="{679BB136-6C3E-43C8-902A-F6DBD6BC2100}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{5DDABE2B-39E7-4125-B501-F1A131DD1D5A}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{87B53E83-0B44-479A-8E21-A5689B05CC3D}"/>
+    <hyperlink ref="C45" r:id="rId42" xr:uid="{3CA35C00-6785-4848-956C-91F10BEF333E}"/>
+    <hyperlink ref="C22" r:id="rId43" xr:uid="{4AE6540E-458C-460F-9CB9-42A64210A447}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
